--- a/bug列表.xlsx
+++ b/bug列表.xlsx
@@ -4,32 +4,29 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29040" windowHeight="9300"/>
+    <workbookView windowWidth="20310" windowHeight="8715" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="百人牛牛" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="李逵劈鱼" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="80">
   <si>
     <t>玩家列表</t>
   </si>
   <si>
-    <t>未做</t>
+    <t>done</t>
   </si>
   <si>
     <t>声音设置</t>
   </si>
   <si>
-    <t>是弹出吗</t>
-  </si>
-  <si>
     <t>桌上玩家下注（非筹码结算分）</t>
   </si>
   <si>
@@ -45,7 +42,220 @@
     <t>结算面板</t>
   </si>
   <si>
-    <t>通杀动画</t>
+    <t>没有</t>
+  </si>
+  <si>
+    <t>通杀和通赔动画</t>
+  </si>
+  <si>
+    <t>桌上玩家没有下注显示</t>
+  </si>
+  <si>
+    <t>屏蔽赢动画</t>
+  </si>
+  <si>
+    <t>调整请等待下局开始动画</t>
+  </si>
+  <si>
+    <t>下调420</t>
+  </si>
+  <si>
+    <t>上庄列表中的上庄条件设置</t>
+  </si>
+  <si>
+    <t>结算动画</t>
+  </si>
+  <si>
+    <t>筹码卡</t>
+  </si>
+  <si>
+    <t>加dump加的,去掉就不卡了</t>
+  </si>
+  <si>
+    <t>筹码换动态写法</t>
+  </si>
+  <si>
+    <t>上庄按钮变换</t>
+  </si>
+  <si>
+    <t>分辨率改为1334*750</t>
+  </si>
+  <si>
+    <t>收筹码动画和分数有些对不上</t>
+  </si>
+  <si>
+    <t>自己没有筹码动画</t>
+  </si>
+  <si>
+    <t>上庄列表中上庄消息发送</t>
+  </si>
+  <si>
+    <t>上庄列表位置有问题</t>
+  </si>
+  <si>
+    <t>修改父节点</t>
+  </si>
+  <si>
+    <t>上庄失败消息处理</t>
+  </si>
+  <si>
+    <t>庄名字好像不对</t>
+  </si>
+  <si>
+    <t>是头像显示错误</t>
+  </si>
+  <si>
+    <t>提示框的按钮是歪的</t>
+  </si>
+  <si>
+    <t>无人地方仍筹码</t>
+  </si>
+  <si>
+    <t>playUserScoreEffect</t>
+  </si>
+  <si>
+    <t>得分动画函数</t>
+  </si>
+  <si>
+    <t>m_tableUserWins</t>
+  </si>
+  <si>
+    <t>onEventBet</t>
+  </si>
+  <si>
+    <t>下注消息处理</t>
+  </si>
+  <si>
+    <t>initJieduanAnim</t>
+  </si>
+  <si>
+    <t>播放开始下注和结束下注动画</t>
+  </si>
+  <si>
+    <t>59.153.74.3:8091</t>
+  </si>
+  <si>
+    <t>59.153.74.14:8091</t>
+  </si>
+  <si>
+    <t>59.153.74.3</t>
+  </si>
+  <si>
+    <t>getDefinePostion</t>
+  </si>
+  <si>
+    <t>设置位置</t>
+  </si>
+  <si>
+    <t>得金币动画位置</t>
+  </si>
+  <si>
+    <t>锁定李逵没有锁定图标</t>
+  </si>
+  <si>
+    <t>不用管</t>
+  </si>
+  <si>
+    <t>打鱼加钱位置修改</t>
+  </si>
+  <si>
+    <t>关闭音乐还有音乐响起</t>
+  </si>
+  <si>
+    <t>不管</t>
+  </si>
+  <si>
+    <t>圈动画位置调整</t>
+  </si>
+  <si>
+    <t>锁鱼图标位置</t>
+  </si>
+  <si>
+    <t>大鱼击杀特效</t>
+  </si>
+  <si>
+    <t>等待加入标识添加</t>
+  </si>
+  <si>
+    <t>场景鱼不正确</t>
+  </si>
+  <si>
+    <t>锁鱼有问题</t>
+  </si>
+  <si>
+    <t>showGoldIcon2</t>
+  </si>
+  <si>
+    <t>加钱动画</t>
+  </si>
+  <si>
+    <t>updateLockIcon</t>
+  </si>
+  <si>
+    <t>更新锁鱼图标</t>
+  </si>
+  <si>
+    <t>获取位置设置</t>
+  </si>
+  <si>
+    <t>onMsgBombEffect</t>
+  </si>
+  <si>
+    <t>修改炸弹特效位置</t>
+  </si>
+  <si>
+    <t>击杀动画</t>
+  </si>
+  <si>
+    <t>showJiShaDaYuAnimation</t>
+  </si>
+  <si>
+    <t>显示击杀大鱼特效</t>
+  </si>
+  <si>
+    <t>ruchangtixing_likpiyu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">入场特效 </t>
+  </si>
+  <si>
+    <t>我在这里动画</t>
+  </si>
+  <si>
+    <t>skill-lock-</t>
+  </si>
+  <si>
+    <t>self.m_pLayerMark</t>
+  </si>
+  <si>
+    <t>李逵</t>
+  </si>
+  <si>
+    <t>打企鹅</t>
+  </si>
+  <si>
+    <t>圈鱼</t>
+  </si>
+  <si>
+    <t>金龙</t>
+  </si>
+  <si>
+    <t>金鲨鱼</t>
+  </si>
+  <si>
+    <t>银鲨</t>
+  </si>
+  <si>
+    <t>金鲸鱼</t>
+  </si>
+  <si>
+    <t>剑圈</t>
+  </si>
+  <si>
+    <t>资源ID对应关系</t>
+  </si>
+  <si>
+    <t>小乌龟</t>
   </si>
 </sst>
 </file>
@@ -53,12 +263,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -74,6 +284,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -81,15 +306,92 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -103,15 +405,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -124,99 +420,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -227,187 +430,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -418,24 +621,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -459,6 +644,24 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -523,148 +726,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1020,61 +1223,213 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="40.875" customWidth="1"/>
+    <col min="4" max="4" width="18.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" t="s">
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" t="s">
+      <c r="C4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" t="s">
+      <c r="C5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" t="s">
+      <c r="C6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" t="s">
+      <c r="C7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>1</v>
+      </c>
+      <c r="D21" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" t="s">
+        <v>1</v>
+      </c>
+      <c r="D23" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1087,14 +1442,88 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="29.75" customWidth="1"/>
+    <col min="2" max="2" width="20.625" customWidth="1"/>
+    <col min="3" max="3" width="18.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2">
+      <c r="B15">
+        <v>1026</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
@@ -1104,14 +1533,232 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:C46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="24.625" customWidth="1"/>
+    <col min="2" max="2" width="18.875" customWidth="1"/>
+    <col min="3" max="3" width="17.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>55</v>
+      </c>
+      <c r="B21" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>57</v>
+      </c>
+      <c r="B22" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>41</v>
+      </c>
+      <c r="B23" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>60</v>
+      </c>
+      <c r="B24" t="s">
+        <v>61</v>
+      </c>
+      <c r="C24" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>63</v>
+      </c>
+      <c r="B25" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
+        <v>65</v>
+      </c>
+      <c r="B26" t="s">
+        <v>66</v>
+      </c>
+      <c r="C26" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34">
+        <v>34</v>
+      </c>
+      <c r="B34" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35">
+        <v>32</v>
+      </c>
+      <c r="B35" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36">
+        <v>44</v>
+      </c>
+      <c r="B36" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37">
+        <v>33</v>
+      </c>
+      <c r="B37" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38">
+        <v>29</v>
+      </c>
+      <c r="B38" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39">
+        <v>28</v>
+      </c>
+      <c r="B39" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40">
+        <v>30</v>
+      </c>
+      <c r="B40" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41">
+        <v>36</v>
+      </c>
+      <c r="B41" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" t="s">
+        <v>79</v>
+      </c>
+      <c r="B46">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
